--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/9_Ardahan_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/9_Ardahan_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{459C1F83-3EF0-4325-ABE9-DC04E06D7B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62A4C636-7D42-48CE-8127-1F2FE2D65B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="663" xr2:uid="{C44B2442-99EA-49EF-938F-358F713F4A0E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="663" xr2:uid="{924BBE27-8465-4E7F-B8C7-741A5F45EA6B}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -916,15 +916,15 @@
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{E47CDE94-5C72-4AE0-BB4B-DAE5B393B6A1}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{020ED62D-4796-455C-A05A-3FBAF44F1BF5}"/>
-    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{28743CAE-0070-4183-A5CC-EFEE72216FD4}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{569DF072-EAAB-4F2E-9993-A59835A9C3E2}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{5DA518AC-0F05-480B-B245-1AF161317D3F}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{735ECDA4-3126-4EDB-92DA-3E48484867A7}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{395EA251-B6E4-44F7-8EF1-5240A9E385A1}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{33B9648E-9956-4139-94C7-0765B50E195E}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{3D6F0A8F-8B1E-42C4-BCDD-51BC7329DCFB}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{6EA92392-A8DD-4274-BEDD-D60764EFC20A}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{37C2AE4A-78F9-4A18-AE74-3F4A7E01E7DA}"/>
+    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{71825768-D457-4175-AEB5-6DF3B1B8239A}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{5974C3E6-BEAC-4651-AD3C-5C4C5B6F182D}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{2240A457-DC69-4A3A-AECF-6BD5762EC3A4}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{9A6852DE-BE4E-4845-8D74-D2A1DE2374A5}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{59DAC9DE-13E6-4F82-A01C-6C1969A8057D}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{61AA05A1-D086-4B03-AE3F-BA3E105B4D4F}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{FC7B1ECA-DD8D-46E1-9E19-B05D4E353F65}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1294,7 +1294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{105E2102-577D-4E45-93E8-A0F67BF5219F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD3527C-31EA-4B58-97B8-9EEF5C76C69D}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2556,7 +2556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7322FA1-E384-459F-A2C9-1C32D381A1A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B268657-8A46-458F-8C28-73A7C74B43DD}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3772,7 +3772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50EDFCFD-68FB-4948-B8B6-231414E4D0D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D11F60-AA10-41BC-891F-ED02E999B202}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -4980,7 +4980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14314F6C-A06B-4A35-BFB8-EFABB4F45DB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFE3E7B-71AB-4FCF-B4D7-4A5C42302E5A}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6178,7 +6178,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F526AF2-4288-4F5E-A88C-CE2907E1ED37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FD154F-923F-4AA6-A576-F0DA366BAAB2}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7437,7 +7437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E91F0D9-1DDC-4418-9C04-33D333ABC31E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD1F3F6-6E18-4F22-89CC-4A86643FBEE3}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8698,7 +8698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7578BE0E-73BE-4B7B-8196-50C3B95C9955}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECA6A3F-A9E4-4B7B-88E8-14BF99C6E92A}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -9960,7 +9960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A6F88F-4181-49CF-924C-4616CB4B8E3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32FF4A6C-8957-4BE4-AC43-4FF7BC809B90}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -11222,7 +11222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73339D16-CCA6-4293-AB76-54F21AD4FF8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{259B5C73-3703-44E5-8AE7-74F1F2E3B45E}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -12484,7 +12484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CC18C8-7C00-4163-A823-5E62418CE4F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33C627D-FC59-4A98-B2CB-E2350A881ED2}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -13726,7 +13726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AECF6A10-FCB8-4B4E-9D32-380D0CEA47E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{057D6F5B-A0A2-4950-A13E-CD0DC25E1B07}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -14968,7 +14968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DAFE25-7F83-4740-B1DD-B57D14B92110}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51EB505D-C7A9-4F67-8672-060FDA085176}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
